--- a/public/AsetData/template-import-aset.xlsx
+++ b/public/AsetData/template-import-aset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah Ryan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02579C36-FEE7-48A2-829A-810013C0C276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0EAD8-1797-416F-A180-DFEF5DD3FFC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>Laptop</t>
   </si>
@@ -485,16 +485,16 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +726,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -748,7 +748,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -800,7 +800,7 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -852,7 +852,7 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -904,7 +904,7 @@
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -930,7 +930,7 @@
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -956,7 +956,7 @@
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -982,7 +982,7 @@
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1008,7 +1008,7 @@
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF31BFA-C6E6-48EE-97AE-8F5851531546}">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2067,14 +2067,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C2" s="19"/>
@@ -2082,21 +2082,21 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="18"/>
